--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276143C2-DF34-49EC-AF45-FCE706A38E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FB64B1-D679-4C2A-AC29-5132EF634B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -1102,13 +1102,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>セキュリティの確認</t>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>文字列で表示</t>
     <rPh sb="0" eb="3">
       <t>モジレツ</t>
@@ -1446,6 +1439,13 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1823,6 +1823,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1838,6 +1853,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1863,12 +1881,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1877,95 +1964,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2319,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42:L42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2338,25 +2338,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="51" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2371,23 +2371,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2400,50 +2400,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="35"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="44"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="54"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2452,20 +2452,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="46" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2475,105 +2475,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="P5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="51"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="45"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="45"/>
-      <c r="Q7" s="45"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" ht="14.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="39" t="s">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="41"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="43"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="39" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="41"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="47"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2585,18 +2585,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="39" t="s">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="41"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="47"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2608,18 +2608,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="39" t="s">
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="41"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2631,18 +2631,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="39" t="s">
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="41"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2654,66 +2654,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="39" t="s">
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="43"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="49"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="39" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="41"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="43"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="49"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="39" t="s">
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="41"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="47"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2725,18 +2725,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="39" t="s">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="41"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2748,18 +2748,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="39" t="s">
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2771,18 +2771,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="39" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="41"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="47"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2794,20 +2794,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="36" t="s">
+      <c r="C19" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="39" t="s">
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="41"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2819,27 +2819,27 @@
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="36" t="s">
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="38"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="38"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="67"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
@@ -2848,52 +2848,52 @@
       <c r="B21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="36" t="s">
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="38"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="67"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="38"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="67"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="39" t="s">
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="38"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="67"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="38"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="67"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
@@ -2902,25 +2902,25 @@
       <c r="B23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="36" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="38"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="38"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="67"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
@@ -2929,106 +2929,106 @@
       <c r="B24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="36" t="s">
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="38"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="67"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="38"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="67"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="39" t="s">
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="38"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="38"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="67"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="39" t="s">
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="38"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="38"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="67"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="39" t="s">
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="38"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="67"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="38"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="67"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
@@ -3037,344 +3037,344 @@
       <c r="B28" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="36" t="s">
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="38"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="67"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="38"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="67"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="39" t="s">
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="38"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="67"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="38"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="67"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="36" t="s">
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="38"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="67"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="38"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="67"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="36" t="s">
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="38"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="67"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="36"/>
-      <c r="Q31" s="38"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="67"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="39" t="s">
+      <c r="B32" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="39" t="s">
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="38"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="67"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="38"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="67"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="36" t="s">
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="38"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="67"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="38"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="67"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="36" t="s">
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="38"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="67"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="38"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="67"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="65" t="s">
+      <c r="B35" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="39" t="s">
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="38"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="67"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="38"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="67"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="65" t="s">
+      <c r="B36" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="39" t="s">
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="38"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="67"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="36"/>
-      <c r="Q36" s="38"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="67"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="39" t="s">
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="67"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="36"/>
-      <c r="Q37" s="38"/>
+      <c r="P37" s="65"/>
+      <c r="Q37" s="67"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="36" t="s">
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
+      <c r="H38" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="67"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="38"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="67"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="65" t="s">
+      <c r="B39" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="39" t="s">
+      <c r="C39" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="38"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="67"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="38"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="67"/>
     </row>
     <row r="40" spans="1:17" ht="106" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="38"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="67"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -3386,18 +3386,18 @@
         <v>36</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="38"/>
+      <c r="C41" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="67"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -3409,20 +3409,20 @@
         <v>37</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="38"/>
+      <c r="C42" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="67"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
@@ -3434,20 +3434,20 @@
         <v>38</v>
       </c>
       <c r="B43" s="7"/>
-      <c r="C43" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="38"/>
+      <c r="C43" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="67"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -3458,98 +3458,98 @@
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="67"/>
-      <c r="C45" s="39" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="45"/>
-      <c r="Q45" s="45"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
     </row>
     <row r="46" spans="1:17" ht="13.5" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="39" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="45"/>
-      <c r="Q46" s="45"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
     </row>
     <row r="47" spans="1:17" ht="13.5" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="39" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -3560,46 +3560,46 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="67"/>
-      <c r="C48" s="39" t="s">
+      <c r="B48" s="24"/>
+      <c r="C48" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="I48" s="45"/>
-      <c r="J48" s="45"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="44" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -3610,26 +3610,26 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="68"/>
-      <c r="C50" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-      <c r="H50" s="36" t="s">
+      <c r="B50" s="25"/>
+      <c r="C50" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="38"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="67"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="124">
@@ -3702,13 +3702,6 @@
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="H27:L27"/>
     <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="H19:L19"/>
     <mergeCell ref="P14:Q14"/>
     <mergeCell ref="C19:G19"/>
@@ -3718,18 +3711,17 @@
     <mergeCell ref="C14:G18"/>
     <mergeCell ref="H17:L17"/>
     <mergeCell ref="H18:L18"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H22:L22"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="C23:G23"/>
@@ -3737,10 +3729,6 @@
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P5:Q5"/>
@@ -3752,11 +3740,23 @@
     <mergeCell ref="H7:L7"/>
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FB64B1-D679-4C2A-AC29-5132EF634B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66ED99A-C2B2-42F4-A0CE-465D2B149FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>作成者</t>
   </si>
@@ -239,25 +239,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「担当者アカウント登録（入力）画面」と表示されている</t>
-    <rPh sb="1" eb="4">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>header</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -352,40 +333,6 @@
   </si>
   <si>
     <t>body</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>事前に担当者がログインし、メニュー画面の「アカウント登録」リンクが押され、「担当者アカウント登録（入力）画面が表示されること</t>
-    <rPh sb="0" eb="2">
-      <t>ジゼン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="38" eb="41">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヒョウジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1158,30 +1105,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>各テキスト入力項目：
-２０文字以内で確認できるコードがない
-（XSS）</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/input」を入力</t>
     <rPh sb="8" eb="10">
       <t>ジョウタイ</t>
@@ -1446,6 +1369,71 @@
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「担当者アカウント登録（入力）」と表示されている</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・事前に担当者がログインし、メニュー画面の「アカウント登録」リンクが押され、「担当者アカウント登録（入力）画面が表示されること</t>
+    <rPh sb="1" eb="3">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各テキスト入力項目：
+&lt;h1&gt;hello&lt;/h1&gt;
+（XSS）</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1761,7 +1749,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1838,6 +1826,78 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1888,84 +1948,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2319,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2338,25 +2320,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2371,23 +2353,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35" t="s">
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="61"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2400,50 +2382,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="44"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="66"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="66"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2452,20 +2434,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="50" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2475,105 +2457,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="51"/>
+      <c r="Q5" s="43"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="14.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="49"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2585,18 +2567,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="47"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2608,18 +2590,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="47"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2631,18 +2613,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="47"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2654,66 +2636,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="49"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="35"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="47"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="49"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="35"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2725,18 +2707,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="47"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2748,18 +2730,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="47"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2771,18 +2753,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="47"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2794,20 +2776,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2819,562 +2801,562 @@
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="67"/>
+        <v>90</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="67"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="33"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="67"/>
+        <v>56</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="67"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="67"/>
+        <v>57</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="67"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="67"/>
+        <v>56</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="67"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="67"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="67"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
+        <v>58</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="65"/>
-      <c r="Q25" s="67"/>
+      <c r="P25" s="31"/>
+      <c r="Q25" s="33"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="67"/>
+        <v>58</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="33"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="65"/>
-      <c r="Q26" s="67"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="33"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="67"/>
+        <v>58</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="67"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="33"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="67"/>
+      <c r="C28" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="33"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="65"/>
-      <c r="Q28" s="67"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="33"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="67"/>
+        <v>58</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="67"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="33"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="67"/>
+        <v>91</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="65"/>
-      <c r="Q30" s="67"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="33"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="67"/>
+        <v>72</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="33"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="67"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="33"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="67"/>
+        <v>73</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="33"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="67"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="33"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="67"/>
+        <v>72</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="33"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="67"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="33"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="67"/>
+        <v>72</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="33"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="65"/>
-      <c r="Q34" s="67"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="33"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="67"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="67"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="33"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="67"/>
+        <v>58</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="67"/>
+      <c r="P36" s="31"/>
+      <c r="Q36" s="33"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="67"/>
+        <v>58</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="67"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="33"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="67"/>
+        <v>72</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="67"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="33"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="67"/>
+        <v>58</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="33"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="67"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="33"/>
     </row>
     <row r="40" spans="1:17" ht="106" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="67"/>
+        <v>94</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="33"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -3386,18 +3368,20 @@
         <v>36</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="67"/>
+      <c r="C41" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="33"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -3409,20 +3393,20 @@
         <v>37</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="65" t="s">
-        <v>96</v>
-      </c>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="67"/>
+      <c r="C42" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="33"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
@@ -3434,20 +3418,20 @@
         <v>38</v>
       </c>
       <c r="B43" s="7"/>
-      <c r="C43" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="67"/>
+      <c r="C43" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="33"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -3461,95 +3445,95 @@
       <c r="B44" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="46"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="46"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
+      <c r="C44" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="54"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="24"/>
-      <c r="C45" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="46"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
+      <c r="C45" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="54"/>
-      <c r="Q45" s="54"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
     </row>
     <row r="46" spans="1:17" ht="13.5" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
       <c r="B46" s="24"/>
-      <c r="C46" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
+      <c r="C46" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="54"/>
-      <c r="Q46" s="54"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
     </row>
     <row r="47" spans="1:17" ht="13.5" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
       <c r="B47" s="24"/>
-      <c r="C47" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
+      <c r="C47" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -3561,45 +3545,45 @@
         <v>43</v>
       </c>
       <c r="B48" s="24"/>
-      <c r="C48" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
+      <c r="C48" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="54"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
       <c r="B49" s="24"/>
-      <c r="C49" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
+      <c r="C49" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -3611,28 +3595,131 @@
         <v>45</v>
       </c>
       <c r="B50" s="25"/>
-      <c r="C50" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="67"/>
+      <c r="C50" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="33"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="54"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
     <mergeCell ref="P48:Q48"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="H49:L49"/>
@@ -3654,109 +3741,6 @@
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="H48:L48"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66ED99A-C2B2-42F4-A0CE-465D2B149FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B929F0-0DA7-423A-8AD8-D9D9FE245580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1424,7 +1424,7 @@
   </si>
   <si>
     <t>各テキスト入力項目：
-&lt;h1&gt;hello&lt;/h1&gt;
+&lt;script&gt;&lt;/script&gt;
 （XSS）</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -1826,128 +1826,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2301,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2320,25 +2320,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2353,23 +2353,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="61"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2382,50 +2382,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="66"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="66"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2434,20 +2434,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="42" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2457,105 +2457,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="43"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="26" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
     </row>
     <row r="8" spans="1:17" ht="14.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="28" t="s">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="30"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="35"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="28" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="45"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2567,18 +2567,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="28" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="30"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="45"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2590,18 +2590,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="28" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="30"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="45"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2613,18 +2613,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="28" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="30"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="45"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2636,66 +2636,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="28" t="s">
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="30"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="45"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="35"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="47"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="28" t="s">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="30"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="35"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="28" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="30"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="45"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2707,18 +2707,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="28" t="s">
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="30"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="45"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2730,18 +2730,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="28" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="45"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2753,18 +2753,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="28" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="30"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="45"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2776,20 +2776,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="28" t="s">
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="30"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="45"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2803,25 +2803,25 @@
       <c r="B20" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="65"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="33"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="65"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
@@ -2830,25 +2830,25 @@
       <c r="B21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="31" t="s">
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="33"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="65"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="33"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="65"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
@@ -2857,25 +2857,25 @@
       <c r="B22" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="28" t="s">
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="65"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="33"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="65"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
@@ -2884,25 +2884,25 @@
       <c r="B23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31" t="s">
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="65"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="33"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="65"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
@@ -2911,25 +2911,25 @@
       <c r="B24" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31" t="s">
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="65"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="33"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="65"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
@@ -2938,25 +2938,25 @@
       <c r="B25" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="28" t="s">
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="33"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="65"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="33"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="65"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
@@ -2965,25 +2965,25 @@
       <c r="B26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="28" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="33"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="65"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="33"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="65"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
@@ -2992,25 +2992,25 @@
       <c r="B27" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="28" t="s">
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="33"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="65"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="33"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="65"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
@@ -3019,25 +3019,25 @@
       <c r="B28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31" t="s">
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="33"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="65"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="33"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="65"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
@@ -3046,25 +3046,25 @@
       <c r="B29" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="28" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="65"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="33"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="65"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
@@ -3073,25 +3073,25 @@
       <c r="B30" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31" t="s">
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="65"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="33"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="65"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
@@ -3100,25 +3100,25 @@
       <c r="B31" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="31" t="s">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="33"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="65"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="33"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="65"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
@@ -3127,25 +3127,25 @@
       <c r="B32" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="28" t="s">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="33"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="65"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="33"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="65"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
@@ -3154,25 +3154,25 @@
       <c r="B33" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31" t="s">
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="65"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="33"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="65"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
@@ -3181,25 +3181,25 @@
       <c r="B34" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="31" t="s">
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="33"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="65"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="33"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="65"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
@@ -3208,25 +3208,25 @@
       <c r="B35" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="28" t="s">
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="45"/>
+      <c r="H35" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="65"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="33"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="65"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
@@ -3235,25 +3235,25 @@
       <c r="B36" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="28" t="s">
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="45"/>
+      <c r="H36" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="33"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="65"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="33"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="65"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
@@ -3262,25 +3262,25 @@
       <c r="B37" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="28" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="65"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="33"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="65"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
@@ -3289,25 +3289,25 @@
       <c r="B38" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="31" t="s">
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="45"/>
+      <c r="H38" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="33"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="65"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="33"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="65"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
@@ -3316,25 +3316,25 @@
       <c r="B39" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="28" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="65"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="33"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="65"/>
     </row>
     <row r="40" spans="1:17" ht="106" customHeight="1">
       <c r="A40" s="6">
@@ -3343,20 +3343,20 @@
       <c r="B40" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="31" t="s">
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="33"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="65"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -3368,20 +3368,20 @@
         <v>36</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="31" t="s">
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="33"/>
+      <c r="I41" s="64"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="65"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -3393,20 +3393,20 @@
         <v>37</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="31" t="s">
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="33"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="65"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
@@ -3418,20 +3418,20 @@
         <v>38</v>
       </c>
       <c r="B43" s="7"/>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="31" t="s">
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="63" t="s">
         <v>71</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="33"/>
+      <c r="I43" s="64"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="64"/>
+      <c r="L43" s="65"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -3445,95 +3445,95 @@
       <c r="B44" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="26" t="s">
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="24"/>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="26" t="s">
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
     </row>
     <row r="46" spans="1:17" ht="13.5" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
       <c r="B46" s="24"/>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="26" t="s">
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
     </row>
     <row r="47" spans="1:17" ht="13.5" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
       <c r="B47" s="24"/>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="26" t="s">
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -3545,45 +3545,45 @@
         <v>43</v>
       </c>
       <c r="B48" s="24"/>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="26" t="s">
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
     </row>
     <row r="49" spans="1:17" ht="13.5" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
       <c r="B49" s="24"/>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26" t="s">
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="52"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -3595,131 +3595,28 @@
         <v>45</v>
       </c>
       <c r="B50" s="25"/>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="31" t="s">
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="33"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="64"/>
+      <c r="L50" s="65"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
     <mergeCell ref="P48:Q48"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="H49:L49"/>
@@ -3741,6 +3638,109 @@
     <mergeCell ref="P46:Q46"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="H48:L48"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B929F0-0DA7-423A-8AD8-D9D9FE245580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C27D2F-AD4D-417B-811D-0F3BCA1D709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
   <si>
     <t>作成者</t>
   </si>
@@ -201,19 +201,6 @@
     <t>舘川</t>
     <rPh sb="0" eb="2">
       <t>タテカワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日本証券テクノロジー株式会社</t>
-    <rPh sb="0" eb="4">
-      <t>ニホンショウケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガイシャ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1059,16 +1046,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ログイン」画面が表示される。</t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>(正常系）</t>
     <rPh sb="1" eb="4">
       <t>セイジョウケイ</t>
@@ -1105,32 +1082,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/input」を入力</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/ec-b/registeraccount/input」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「キャンセル」リンクを押下</t>
     <rPh sb="11" eb="12">
       <t>オ</t>
@@ -1434,6 +1385,62 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「担当者アカウント登録（入力）画面」と表示されている</t>
+    <rPh sb="1" eb="4">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registeraccount/input」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registeraccount/input」を入力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本証券テクノロジー</t>
+    <rPh sb="0" eb="4">
+      <t>ニホンショウケン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1749,7 +1756,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1826,6 +1833,81 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1876,78 +1958,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2301,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41:G41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2320,25 +2330,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2349,27 +2359,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="32" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="35" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2382,50 +2392,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="42"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="42"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2434,20 +2444,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="48" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2457,105 +2467,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="49"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="52" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="14.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="47"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2567,18 +2577,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="45"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2590,18 +2600,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="45"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2613,18 +2623,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="45"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2636,66 +2646,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="45"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="47"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="45"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="47"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="45"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2707,18 +2717,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="45"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2730,18 +2740,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="45"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2753,18 +2763,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="45"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="33"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2776,20 +2786,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="63" t="s">
+      <c r="C19" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="45"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2801,918 +2811,837 @@
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="65"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="63"/>
-      <c r="Q20" s="65"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="65"/>
+        <v>55</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="65"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="65"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="65"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="65"/>
+        <v>55</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="65"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="65"/>
+        <v>55</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="65"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="65"/>
+        <v>57</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="63"/>
-      <c r="Q25" s="65"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="36"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="65"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="63"/>
-      <c r="Q26" s="65"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="65"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="65"/>
+        <v>55</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="65"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="65"/>
+        <v>57</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="65"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="65"/>
+        <v>87</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="65"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="64"/>
-      <c r="J31" s="64"/>
-      <c r="K31" s="64"/>
-      <c r="L31" s="65"/>
+        <v>70</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="36"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="65"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" s="64"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="64"/>
-      <c r="L32" s="65"/>
+        <v>71</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="65"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="65"/>
+        <v>70</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="63"/>
-      <c r="Q33" s="65"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="36"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="I34" s="64"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="65"/>
+        <v>70</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="65"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="36"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="65"/>
+        <v>57</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="65"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
       <c r="B36" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="43" t="s">
-        <v>59</v>
-      </c>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="65"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="65"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" s="64"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="65"/>
+        <v>57</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="65"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="36"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
+        <v>70</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="36"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="65"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="36"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="65"/>
+        <v>57</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="65"/>
-    </row>
-    <row r="40" spans="1:17" ht="106" customHeight="1">
+      <c r="P39" s="34"/>
+      <c r="Q39" s="36"/>
+    </row>
+    <row r="40" spans="1:17" ht="13.5" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C40" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="65"/>
+      <c r="B40" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="17"/>
-    </row>
-    <row r="41" spans="1:17" ht="106" customHeight="1">
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+    </row>
+    <row r="41" spans="1:17" ht="13.5" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="I41" s="64"/>
-      <c r="J41" s="64"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="65"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="17"/>
-    </row>
-    <row r="42" spans="1:17" ht="106" customHeight="1">
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
+    </row>
+    <row r="42" spans="1:17" ht="13.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="I42" s="64"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="64"/>
-      <c r="L42" s="65"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="17"/>
-    </row>
-    <row r="43" spans="1:17" ht="106" customHeight="1">
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+    </row>
+    <row r="43" spans="1:17" ht="13.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="64"/>
-      <c r="L43" s="65"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="17"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
     </row>
     <row r="44" spans="1:17" ht="13.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
-      <c r="H44" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="52"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="52"/>
-      <c r="Q44" s="52"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
     </row>
     <row r="45" spans="1:17" ht="13.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="24"/>
-      <c r="C45" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="52"/>
+      <c r="C45" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="52"/>
-      <c r="Q45" s="52"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
     </row>
     <row r="46" spans="1:17" ht="13.5" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="52"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="36"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="52"/>
-      <c r="Q46" s="52"/>
-    </row>
-    <row r="47" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+    </row>
+    <row r="47" spans="1:17" ht="62" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
+      <c r="B47" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-    </row>
-    <row r="48" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P47" s="16"/>
+      <c r="Q47" s="17"/>
+    </row>
+    <row r="48" spans="1:17" ht="61" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="52"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="36"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
-      <c r="P48" s="52"/>
-      <c r="Q48" s="52"/>
-    </row>
-    <row r="49" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P48" s="16"/>
+      <c r="Q48" s="17"/>
+    </row>
+    <row r="49" spans="1:17" ht="56.5" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="I49" s="52"/>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="52"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="36"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-    </row>
-    <row r="50" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P49" s="16"/>
+      <c r="Q49" s="17"/>
+    </row>
+    <row r="50" spans="1:17" ht="58.5" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="I50" s="64"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="65"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="36"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="P48:Q48"/>
+  <mergeCells count="125">
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="H50:L50"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="P5:Q5"/>
@@ -3732,15 +3661,97 @@
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C27D2F-AD4D-417B-811D-0F3BCA1D709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3486753-EC01-4BE4-AE2E-B6B40A8631DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1092,22 +1092,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>管理者ログイン後の「メニュー」画面へ遷移すること</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「完了」ボタンを押下</t>
     <rPh sb="1" eb="3">
       <t>カンリョウ</t>
@@ -1441,6 +1425,25 @@
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者ログイン後の「メニュー」画面へ遷移し、セッションが破棄される</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1833,131 +1836,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2311,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C38" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46:L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2330,25 +2333,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2359,27 +2362,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2392,50 +2395,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="48"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="48"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2444,20 +2447,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="45" t="s">
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2467,105 +2470,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="54"/>
+      <c r="C7" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="1:17" ht="14.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="31" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="50"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="31" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2577,18 +2580,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="31" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2600,18 +2603,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="31" t="s">
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2623,18 +2626,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="31" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2646,66 +2649,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="31" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="50"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="31" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="50"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="31" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2717,18 +2720,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="31" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2740,18 +2743,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="31" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2763,18 +2766,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="31" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2786,20 +2789,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="31" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2811,27 +2814,27 @@
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="36"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="31"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
@@ -2840,25 +2843,25 @@
       <c r="B21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="36"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="31"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
@@ -2867,25 +2870,25 @@
       <c r="B22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="31" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="36"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="31"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
@@ -2894,25 +2897,25 @@
       <c r="B23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="36"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="31"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
@@ -2921,25 +2924,25 @@
       <c r="B24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="36"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="31"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
@@ -2948,25 +2951,25 @@
       <c r="B25" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="31" t="s">
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="36"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="31"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
@@ -2975,25 +2978,25 @@
       <c r="B26" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="31" t="s">
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="36"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="31"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="36"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="31"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
@@ -3002,25 +3005,25 @@
       <c r="B27" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="31" t="s">
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="36"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="36"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
@@ -3029,25 +3032,25 @@
       <c r="B28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34" t="s">
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="31"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="36"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="31"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
@@ -3056,52 +3059,52 @@
       <c r="B29" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="31" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="31"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="36"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="31"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34" t="s">
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="31"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="36"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="31"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
@@ -3110,25 +3113,25 @@
       <c r="B31" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="34" t="s">
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="31"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="36"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="31"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
@@ -3137,25 +3140,25 @@
       <c r="B32" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="31" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="36"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="31"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="36"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="31"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
@@ -3164,25 +3167,25 @@
       <c r="B33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34" t="s">
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="31"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="36"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="31"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
@@ -3191,25 +3194,25 @@
       <c r="B34" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="34" t="s">
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="36"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="31"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="36"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="31"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
@@ -3218,25 +3221,25 @@
       <c r="B35" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="31" t="s">
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="31"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="36"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="31"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
@@ -3245,25 +3248,25 @@
       <c r="B36" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="31" t="s">
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="36"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="31"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="36"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="31"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
@@ -3272,25 +3275,25 @@
       <c r="B37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="31" t="s">
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="31"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="36"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="31"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
@@ -3299,25 +3302,25 @@
       <c r="B38" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34" t="s">
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="36"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="31"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
@@ -3326,25 +3329,25 @@
       <c r="B39" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="31" t="s">
+      <c r="C39" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="36"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="36"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="31"/>
     </row>
     <row r="40" spans="1:17" ht="13.5" customHeight="1">
       <c r="A40" s="6">
@@ -3353,95 +3356,95 @@
       <c r="B40" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
       <c r="B41" s="24"/>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
     </row>
     <row r="42" spans="1:17" ht="13.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
       <c r="B42" s="24"/>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
     </row>
     <row r="43" spans="1:17" ht="13.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
       <c r="B43" s="24"/>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -3453,45 +3456,45 @@
         <v>39</v>
       </c>
       <c r="B44" s="24"/>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
-    </row>
-    <row r="45" spans="1:17" ht="13.5" customHeight="1">
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+    </row>
+    <row r="45" spans="1:17" ht="36.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="24"/>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -3503,47 +3506,47 @@
         <v>41</v>
       </c>
       <c r="B46" s="25"/>
-      <c r="C46" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="34" t="s">
+      <c r="C46" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="36"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="31"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
     </row>
     <row r="47" spans="1:17" ht="62" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="31" t="s">
+      <c r="B47" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="34" t="s">
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="36"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="31"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -3554,21 +3557,21 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34" t="s">
+      <c r="B48" s="54"/>
+      <c r="C48" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="36"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="31"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -3579,21 +3582,21 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="36"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="31"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -3604,21 +3607,21 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="36"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="31"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
@@ -3627,6 +3630,107 @@
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="H48:L48"/>
     <mergeCell ref="C49:G49"/>
@@ -3651,107 +3755,6 @@
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3486753-EC01-4BE4-AE2E-B6B40A8631DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC6C4D1-1622-4583-B626-7021665B95F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -1405,23 +1405,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/registeraccount/input」を入力</t>
-    <rPh sb="9" eb="11">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/registeraccount/input」を入力</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
@@ -1444,6 +1427,23 @@
     </rPh>
     <rPh sb="28" eb="30">
       <t>ハキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/registeraccount/input」を入力</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/registeraccount/input」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1845,6 +1845,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1854,6 +1857,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1904,63 +1961,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2314,8 +2314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C38" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46:L46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C48" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2333,25 +2333,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2362,27 +2362,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2395,50 +2395,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="48"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2447,20 +2447,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="51" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2470,75 +2470,75 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="51" t="s">
+      <c r="P5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="52"/>
+      <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55" t="s">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
     </row>
     <row r="8" spans="1:17" ht="14.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="26" t="s">
         <v>26</v>
       </c>
@@ -2549,19 +2549,19 @@
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="50"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="38"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
       <c r="H9" s="26" t="s">
         <v>28</v>
       </c>
@@ -2580,11 +2580,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
       <c r="H10" s="26" t="s">
         <v>29</v>
       </c>
@@ -2603,11 +2603,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="44"/>
       <c r="H11" s="26" t="s">
         <v>30</v>
       </c>
@@ -2626,11 +2626,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="44"/>
       <c r="H12" s="26" t="s">
         <v>31</v>
       </c>
@@ -2649,11 +2649,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
       <c r="H13" s="26" t="s">
         <v>27</v>
       </c>
@@ -2664,21 +2664,21 @@
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="50"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="26" t="s">
         <v>35</v>
       </c>
@@ -2689,19 +2689,19 @@
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="50"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="38"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="26" t="s">
         <v>36</v>
       </c>
@@ -2720,11 +2720,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
       <c r="H16" s="26" t="s">
         <v>37</v>
       </c>
@@ -2743,11 +2743,11 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
       <c r="H17" s="26" t="s">
         <v>38</v>
       </c>
@@ -2766,11 +2766,11 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="44"/>
       <c r="H18" s="26" t="s">
         <v>39</v>
       </c>
@@ -2789,13 +2789,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="26" t="s">
         <v>33</v>
       </c>
@@ -2823,18 +2823,18 @@
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="31"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="32"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
@@ -2850,18 +2850,18 @@
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="28"/>
-      <c r="H21" s="29" t="s">
+      <c r="H21" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="32"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
@@ -2880,15 +2880,15 @@
       <c r="H22" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="32"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="31"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="32"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
@@ -2904,18 +2904,18 @@
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="32"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
@@ -2931,18 +2931,18 @@
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="29" t="s">
+      <c r="H24" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="32"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="31"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
@@ -2961,15 +2961,15 @@
       <c r="H25" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="32"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="31"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="32"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
@@ -2988,15 +2988,15 @@
       <c r="H26" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="31"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="32"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
@@ -3015,15 +3015,15 @@
       <c r="H27" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="31"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="32"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
@@ -3039,18 +3039,18 @@
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
       <c r="G28" s="28"/>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="31"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="32"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
@@ -3069,15 +3069,15 @@
       <c r="H29" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="32"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="31"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="32"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
@@ -3093,18 +3093,18 @@
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
       <c r="G30" s="28"/>
-      <c r="H30" s="29" t="s">
+      <c r="H30" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="32"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="31"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="32"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
@@ -3120,18 +3120,18 @@
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
       <c r="G31" s="28"/>
-      <c r="H31" s="29" t="s">
+      <c r="H31" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="32"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="31"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="32"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
@@ -3150,15 +3150,15 @@
       <c r="H32" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="29"/>
-      <c r="Q32" s="31"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="32"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
@@ -3174,18 +3174,18 @@
       <c r="E33" s="27"/>
       <c r="F33" s="27"/>
       <c r="G33" s="28"/>
-      <c r="H33" s="29" t="s">
+      <c r="H33" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="32"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="29"/>
-      <c r="Q33" s="31"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="32"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
@@ -3201,18 +3201,18 @@
       <c r="E34" s="27"/>
       <c r="F34" s="27"/>
       <c r="G34" s="28"/>
-      <c r="H34" s="29" t="s">
+      <c r="H34" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="32"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="31"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="32"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
@@ -3231,15 +3231,15 @@
       <c r="H35" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="32"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="31"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="32"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
@@ -3258,15 +3258,15 @@
       <c r="H36" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="32"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="31"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="32"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
@@ -3285,15 +3285,15 @@
       <c r="H37" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="31"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="32"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
@@ -3309,18 +3309,18 @@
       <c r="E38" s="27"/>
       <c r="F38" s="27"/>
       <c r="G38" s="28"/>
-      <c r="H38" s="29" t="s">
+      <c r="H38" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="32"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="31"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="32"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
@@ -3339,15 +3339,15 @@
       <c r="H39" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="32"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="31"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="32"/>
     </row>
     <row r="40" spans="1:17" ht="13.5" customHeight="1">
       <c r="A40" s="6">
@@ -3363,18 +3363,18 @@
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
       <c r="G40" s="28"/>
-      <c r="H40" s="55" t="s">
+      <c r="H40" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" customHeight="1">
       <c r="A41" s="6">
@@ -3388,18 +3388,18 @@
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="G41" s="28"/>
-      <c r="H41" s="55" t="s">
+      <c r="H41" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
+      <c r="P41" s="29"/>
+      <c r="Q41" s="29"/>
     </row>
     <row r="42" spans="1:17" ht="13.5" customHeight="1">
       <c r="A42" s="6">
@@ -3413,18 +3413,18 @@
       <c r="E42" s="27"/>
       <c r="F42" s="27"/>
       <c r="G42" s="28"/>
-      <c r="H42" s="55" t="s">
+      <c r="H42" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="29"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
     </row>
     <row r="43" spans="1:17" ht="13.5" customHeight="1">
       <c r="A43" s="6">
@@ -3438,13 +3438,13 @@
       <c r="E43" s="27"/>
       <c r="F43" s="27"/>
       <c r="G43" s="28"/>
-      <c r="H43" s="55" t="s">
+      <c r="H43" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -3463,38 +3463,38 @@
       <c r="E44" s="27"/>
       <c r="F44" s="27"/>
       <c r="G44" s="28"/>
-      <c r="H44" s="55" t="s">
+      <c r="H44" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="29"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
     </row>
     <row r="45" spans="1:17" ht="36.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="24"/>
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="29"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -3506,31 +3506,31 @@
         <v>41</v>
       </c>
       <c r="B46" s="25"/>
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="29" t="s">
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="32"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
     </row>
     <row r="47" spans="1:17" ht="62" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C47" s="26" t="s">
@@ -3540,13 +3540,13 @@
       <c r="E47" s="27"/>
       <c r="F47" s="27"/>
       <c r="G47" s="28"/>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="32"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -3557,7 +3557,7 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="54"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="26" t="s">
         <v>92</v>
       </c>
@@ -3565,13 +3565,13 @@
       <c r="E48" s="27"/>
       <c r="F48" s="27"/>
       <c r="G48" s="28"/>
-      <c r="H48" s="29" t="s">
+      <c r="H48" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="32"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -3582,21 +3582,21 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="54"/>
+      <c r="B49" s="34"/>
       <c r="C49" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="27"/>
       <c r="G49" s="28"/>
-      <c r="H49" s="29" t="s">
+      <c r="H49" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="32"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -3607,21 +3607,21 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="66"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="26" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
       <c r="F50" s="27"/>
       <c r="G50" s="28"/>
-      <c r="H50" s="29" t="s">
+      <c r="H50" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="32"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
@@ -3630,79 +3630,34 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="P20:Q20"/>
@@ -3721,40 +3676,85 @@
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
     <mergeCell ref="C48:G48"/>
     <mergeCell ref="H48:L48"/>
     <mergeCell ref="C49:G49"/>
     <mergeCell ref="H49:L49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="H50:L50"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC6C4D1-1622-4583-B626-7021665B95F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7ECAFA-E923-4357-887C-A42086600A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -1759,7 +1759,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1836,6 +1836,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1893,6 +1905,66 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1901,66 +1973,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2312,10 +2324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C48" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50:G50"/>
+      <selection activeCell="C49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2333,25 +2345,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2366,23 +2378,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2395,50 +2407,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2447,20 +2459,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="45" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2470,105 +2482,105 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="45" t="s">
+      <c r="P5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="47"/>
+      <c r="Q5" s="71"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="29" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="14.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="26" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="38"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="26" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -2580,18 +2592,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="26" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2603,18 +2615,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="26" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -2626,18 +2638,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="26" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2649,66 +2661,66 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="26" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="38"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="38"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="26" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -2720,18 +2732,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="26" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -2743,18 +2755,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="26" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="28"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -2766,18 +2778,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="26" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -2789,20 +2801,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="26" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="28"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -2816,25 +2828,25 @@
       <c r="B20" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="30" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="32"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
@@ -2843,25 +2855,25 @@
       <c r="B21" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="30" t="s">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="32"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="32"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
@@ -2870,25 +2882,25 @@
       <c r="B22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="26" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="32"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
@@ -2897,25 +2909,25 @@
       <c r="B23" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="30" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="32"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="32"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
@@ -2924,25 +2936,25 @@
       <c r="B24" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="30" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="32"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
@@ -2951,25 +2963,25 @@
       <c r="B25" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="26" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="32"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="15"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="30"/>
-      <c r="Q25" s="32"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="36"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
@@ -2978,25 +2990,25 @@
       <c r="B26" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="26" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="32"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="15"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="32"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
@@ -3005,25 +3017,25 @@
       <c r="B27" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="26" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="32"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="15"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="32"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
@@ -3032,25 +3044,25 @@
       <c r="B28" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="30" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="32"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="15"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="32"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
@@ -3059,25 +3071,25 @@
       <c r="B29" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="26" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="32"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="15"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="32"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
@@ -3086,25 +3098,25 @@
       <c r="B30" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="30" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="32"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
       <c r="M30" s="15"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="32"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
@@ -3113,25 +3125,25 @@
       <c r="B31" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="30" t="s">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="32"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="36"/>
       <c r="M31" s="15"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="32"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
@@ -3140,25 +3152,25 @@
       <c r="B32" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="26" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="32"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="15"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="32"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
@@ -3167,25 +3179,25 @@
       <c r="B33" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="30" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="32"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="15"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="32"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="36"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
@@ -3194,25 +3206,25 @@
       <c r="B34" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="30" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="32"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="15"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="32"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="36"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
@@ -3221,25 +3233,25 @@
       <c r="B35" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="26" t="s">
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="32"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="15"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="32"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
@@ -3248,25 +3260,25 @@
       <c r="B36" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="26" t="s">
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="32"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="15"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="32"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
@@ -3275,25 +3287,25 @@
       <c r="B37" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="26" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="32"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
       <c r="M37" s="15"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="32"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="36"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
@@ -3302,25 +3314,25 @@
       <c r="B38" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="30" t="s">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="32"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="36"/>
       <c r="M38" s="15"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="32"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="36"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
@@ -3329,25 +3341,25 @@
       <c r="B39" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="26" t="s">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="32"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
       <c r="M39" s="15"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="32"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="36"/>
     </row>
     <row r="40" spans="1:17" ht="13.5" customHeight="1">
       <c r="A40" s="6">
@@ -3356,95 +3368,95 @@
       <c r="B40" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29" t="s">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="L40" s="29"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
       <c r="M40" s="15"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
       <c r="B41" s="24"/>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
       <c r="M41" s="15"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
     </row>
     <row r="42" spans="1:17" ht="13.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
       <c r="B42" s="24"/>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29" t="s">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="L42" s="29"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
       <c r="M42" s="15"/>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
     </row>
     <row r="43" spans="1:17" ht="13.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
       <c r="B43" s="24"/>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
       <c r="M43" s="15"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -3456,45 +3468,45 @@
         <v>39</v>
       </c>
       <c r="B44" s="24"/>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="29" t="s">
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
       <c r="M44" s="15"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="29"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
     </row>
     <row r="45" spans="1:17" ht="36.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="24"/>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29" t="s">
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
       <c r="M45" s="15"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -3506,47 +3518,47 @@
         <v>41</v>
       </c>
       <c r="B46" s="25"/>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30" t="s">
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="32"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="36"/>
       <c r="M46" s="15"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="29"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
     </row>
     <row r="47" spans="1:17" ht="62" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="30" t="s">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="32"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
       <c r="M47" s="15"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -3557,21 +3569,21 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="34"/>
-      <c r="C48" s="26" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="30" t="s">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="36"/>
       <c r="M48" s="15"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -3582,21 +3594,21 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="34"/>
-      <c r="C49" s="26" t="s">
+      <c r="B49" s="38"/>
+      <c r="C49" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="30" t="s">
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="32"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="36"/>
       <c r="M49" s="15"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -3607,26 +3619,45 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="26" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="30" t="s">
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="36"/>
       <c r="M50" s="15"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="16"/>
       <c r="Q50" s="17"/>
+    </row>
+    <row r="51" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A51" s="27"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="125">
@@ -3648,6 +3679,7 @@
     <mergeCell ref="P7:Q7"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="C8:G13"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H9:L9"/>
@@ -3657,7 +3689,6 @@
     <mergeCell ref="P8:Q8"/>
     <mergeCell ref="H13:L13"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="P5:Q5"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="P20:Q20"/>
@@ -3740,6 +3771,12 @@
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="H47:L47"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
     <mergeCell ref="C38:G38"/>
     <mergeCell ref="H38:L38"/>
     <mergeCell ref="P38:Q38"/>
@@ -3749,12 +3786,6 @@
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="H40:L40"/>
     <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7ECAFA-E923-4357-887C-A42086600A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7331404-23D6-4054-A0E1-1647E2650B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
   <si>
     <t>作成者</t>
   </si>
@@ -388,34 +388,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：suzukikenzo
-（アカウント名が６文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1444,6 +1416,62 @@
     </rPh>
     <rPh sb="73" eb="75">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>館川</t>
+    <rPh sb="0" eb="2">
+      <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名が違う</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka
+パスワード：tanaka
+（アカウント名が６文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1848,6 +1876,102 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1857,8 +1981,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1869,110 +1996,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2326,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C48" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C49" sqref="A49:XFD49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2345,25 +2373,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2374,27 +2402,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2407,50 +2435,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="68"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="68"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2459,20 +2487,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="69" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2482,108 +2510,124 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="71"/>
+      <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="N6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="N7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17" ht="14.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="30" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
+      <c r="N8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="66"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="30" t="s">
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="N9" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="19"/>
     </row>
@@ -2592,21 +2636,25 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="30" t="s">
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="N10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="19"/>
     </row>
@@ -2615,21 +2663,25 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="N11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="19"/>
     </row>
@@ -2638,21 +2690,25 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="30" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="19"/>
     </row>
@@ -2661,69 +2717,81 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="30" t="s">
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="42"/>
+      <c r="N13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="66"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="30" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="42"/>
+      <c r="N14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="66"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="30" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="N15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="19"/>
     </row>
@@ -2732,21 +2800,25 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="30" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="N16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="19"/>
     </row>
@@ -2755,21 +2827,25 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="N17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="19"/>
     </row>
@@ -2778,22 +2854,28 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="30" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="18"/>
+      <c r="N18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" s="18" t="s">
+        <v>101</v>
+      </c>
       <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="10.5" customHeight="1">
@@ -2801,23 +2883,27 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="30" t="s">
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="N19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="19"/>
     </row>
@@ -2826,540 +2912,580 @@
         <v>15</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="69"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
+      <c r="N20" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O20" s="7"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="36"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="69"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
+        <v>54</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="69"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
+      <c r="N21" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O21" s="7"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="36"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="69"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="69"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
+      <c r="N22" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O22" s="7"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="36"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="69"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
+        <v>54</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="69"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
+      <c r="N23" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O23" s="7"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="36"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="69"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
+        <v>54</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="69"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
+      <c r="N24" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O24" s="7"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="36"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="69"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
+      <c r="N25" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O25" s="7"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="36"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="69"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="36"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="7"/>
+      <c r="N26" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O26" s="7"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="36"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="69"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="36"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="69"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="7"/>
+      <c r="N27" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O27" s="7"/>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="36"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="69"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
+        <v>54</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="69"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="7"/>
+      <c r="N28" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O28" s="7"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="36"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="69"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="69"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="7"/>
+      <c r="N29" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O29" s="7"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="36"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="69"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="7"/>
+      <c r="N30" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O30" s="7"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="36"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="69"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="7"/>
+      <c r="N31" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O31" s="7"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="36"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="69"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="36"/>
+        <v>70</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
       <c r="M32" s="15"/>
-      <c r="N32" s="7"/>
+      <c r="N32" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O32" s="7"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="36"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="69"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="69"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="7"/>
+      <c r="N33" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O33" s="7"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="36"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="69"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="36"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="69"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="7"/>
+      <c r="N34" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O34" s="7"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="36"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="69"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="69"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="7"/>
+      <c r="N35" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O35" s="7"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="36"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="69"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
       <c r="B36" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="36"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="69"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="7"/>
+      <c r="N36" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O36" s="7"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="36"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="69"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="69"/>
       <c r="M37" s="15"/>
-      <c r="N37" s="7"/>
+      <c r="N37" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O37" s="7"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="36"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="69"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
+        <v>69</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="69"/>
       <c r="M38" s="15"/>
-      <c r="N38" s="7"/>
+      <c r="N38" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O38" s="7"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="36"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="69"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="69"/>
       <c r="M39" s="15"/>
-      <c r="N39" s="7"/>
+      <c r="N39" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O39" s="7"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="36"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="69"/>
     </row>
     <row r="40" spans="1:17" ht="13.5" customHeight="1">
       <c r="A40" s="6">
@@ -3368,97 +3494,105 @@
       <c r="B40" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="7"/>
+      <c r="N40" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O40" s="7"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
       <c r="B41" s="24"/>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
       <c r="M41" s="15"/>
-      <c r="N41" s="7"/>
+      <c r="N41" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O41" s="7"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
     </row>
     <row r="42" spans="1:17" ht="13.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
       <c r="B42" s="24"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="7"/>
+      <c r="N42" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O42" s="7"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
     </row>
     <row r="43" spans="1:17" ht="13.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
       <c r="B43" s="24"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
       <c r="M43" s="15"/>
-      <c r="N43" s="7"/>
+      <c r="N43" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O43" s="7"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
@@ -3468,47 +3602,51 @@
         <v>39</v>
       </c>
       <c r="B44" s="24"/>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
       <c r="M44" s="15"/>
-      <c r="N44" s="7"/>
+      <c r="N44" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O44" s="7"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
     </row>
     <row r="45" spans="1:17" ht="36.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="24"/>
-      <c r="C45" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
+      <c r="C45" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
       <c r="M45" s="15"/>
-      <c r="N45" s="7"/>
+      <c r="N45" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -3518,49 +3656,53 @@
         <v>41</v>
       </c>
       <c r="B46" s="25"/>
-      <c r="C46" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="36"/>
+      <c r="C46" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="69"/>
       <c r="M46" s="15"/>
-      <c r="N46" s="7"/>
+      <c r="N46" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O46" s="7"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
     </row>
     <row r="47" spans="1:17" ht="62" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="36"/>
+      <c r="B47" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="69"/>
       <c r="M47" s="15"/>
-      <c r="N47" s="7"/>
+      <c r="N47" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O47" s="7"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="17"/>
@@ -3569,23 +3711,25 @@
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="36"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="69"/>
       <c r="M48" s="15"/>
-      <c r="N48" s="7"/>
+      <c r="N48" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O48" s="7"/>
       <c r="P48" s="16"/>
       <c r="Q48" s="17"/>
@@ -3594,23 +3738,25 @@
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="36"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="69"/>
       <c r="M49" s="15"/>
-      <c r="N49" s="7"/>
+      <c r="N49" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O49" s="7"/>
       <c r="P49" s="16"/>
       <c r="Q49" s="17"/>
@@ -3619,23 +3765,25 @@
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="36"/>
+      <c r="B50" s="70"/>
+      <c r="C50" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="64"/>
+      <c r="H50" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="69"/>
       <c r="M50" s="15"/>
-      <c r="N50" s="7"/>
+      <c r="N50" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O50" s="7"/>
       <c r="P50" s="16"/>
       <c r="Q50" s="17"/>
@@ -3661,6 +3809,112 @@
     </row>
   </sheetData>
   <mergeCells count="125">
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
@@ -3680,112 +3934,6 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7331404-23D6-4054-A0E1-1647E2650B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3858AC87-E12D-48D6-8345-141EF597A8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="105">
   <si>
     <t>作成者</t>
   </si>
@@ -366,16 +366,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「完了」ボタンが表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>担当者アカウント（確認）画面に遷移する</t>
     <rPh sb="0" eb="3">
       <t>タントウシャ</t>
@@ -392,62 +382,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuk
-パスワード：suzukikenzo
-（アカウント名が5文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzu
-パスワード：suzukikenzo
-（アカウント名が4文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「アカウント名は5文字以上20以内でなければなりません。」
 とエラーメッセージが表示</t>
     <rPh sb="6" eb="7">
@@ -464,31 +398,6 @@
     </rPh>
     <rPh sb="40" eb="42">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：
-パスワード：suzukikenzo
-（アカウント名がnullの場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -523,204 +432,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzukisuzukisuzukis
-パスワード：suzukikenzo
-（アカウント名が19文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzukisuzukisuzukisu
-パスワード：suzukikenzo
-（アカウント名が20文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzukisuzukisuzukisuz
-パスワード：suzukikenzo
-（アカウント名が21文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>担当者アカウント（確認）画面に遷移する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「半角英数字で入力してください」
-とエラーメッセージが表示</t>
-    <rPh sb="1" eb="3">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：Suzuki
-パスワード：suzukikenzo
-（アカウント名に全角が入っている場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki3
-パスワード：suzukikenzo
-（アカウント名が半角英数字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki!
-パスワード：suzukikenzo
-（アカウント名に記号が入っている場合の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="57" eb="58">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -776,234 +488,6 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：suzuki
-（パスワードが6文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：suzuk
-（パスワードが5文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：suzu
-（パスワードが4文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：suzukisuzukisuzukis
-（パスワードが19文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：suzukisuzukisuzukisu
-（パスワードが20文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：suzukisuzukisuzukisuz
-（パスワードが21文字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：
-（パスワードがnullの場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：Suzukikenzo
-（パスワードに全角が入っている場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ゼンカク</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：Suzukikenzo3
-（パスワードが半角英数字の場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ハンカク</t>
-    </rPh>
-    <rPh sb="55" eb="58">
-      <t>エイスウジ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1064,19 +548,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「完了」ボタンを押下</t>
-    <rPh sb="1" eb="3">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「商品情報メンテナンス」リンクを押下</t>
     <rPh sb="1" eb="5">
       <t>ショウヒンジョウホウ</t>
@@ -1167,16 +638,6 @@
     <t>「ログアウト」を押下</t>
     <rPh sb="8" eb="10">
       <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン画面へ遷移すること</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1235,34 +696,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>社員名：鈴木けんぞう
-アカウント名：suzuki
-パスワード：Suzukikenzo!
-（パスワードに記号が入っている場合）</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「不正な操作」</t>
     <rPh sb="1" eb="3">
       <t>フセイ</t>
@@ -1276,22 +709,6 @@
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「担当者アカウント登録（入力）」と表示されている</t>
-    <rPh sb="1" eb="4">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1345,38 +762,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「ログイン前メニュー」画面が表示される。</t>
-    <rPh sb="5" eb="6">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「担当者アカウント登録（入力）画面」と表示されている</t>
-    <rPh sb="1" eb="4">
-      <t>タントウシャ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>日本証券テクノロジー</t>
     <rPh sb="0" eb="4">
       <t>ニホンショウケン</t>
@@ -1432,16 +817,6 @@
   </si>
   <si>
     <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>名が違う</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チガ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1472,6 +847,706 @@
     </rPh>
     <rPh sb="50" eb="52">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント登録（入力）画面」と表示されている</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanak
+パスワード：tanaka
+（アカウント名が5文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tana
+パスワード：tanaka
+（アカウント名が4文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanakatanakatanakat
+パスワード：tanaka
+（アカウント名が19文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanakatanakatanakata
+パスワード：tanaka
+（アカウント名が20文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanakatanakatanakatan
+パスワード：tanaka
+（アカウント名が21文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：
+パスワード：tanaka
+（アカウント名がnullの場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka2
+パスワード：tanaka
+（アカウント名が半角英数字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka!
+パスワード：tanaka
+（アカウント名に記号が入っている場合の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka
+パスワード：tanaka
+（パスワードが6文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka
+パスワード：tanak
+（パスワードが5文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka
+パスワード：tana
+（パスワードが4文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka
+パスワード：tanakatanakatanakat
+（パスワードが19文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka
+パスワード：tanakatanakatanakata
+（パスワードが20文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka
+パスワード：tanakatanakatanakatan
+（パスワードが21文字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka
+パスワード:
+（パスワードがnullの場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka
+パスワード：Tanakatanakatanakat
+（パスワードに全角が入っている場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka
+パスワード：Tanaka2
+（パスワードが半角英数字の場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名：tanaka
+パスワード：tanaka!
+（パスワードに記号が入っている場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「確認」ボタンが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「アカウント名は半角英数字のみです」
+とエラーメッセージが表示</t>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>社員名：田中花子
+アカウント名： T anaka
+パスワード：tanaka
+（アカウント名に全角が入っている場合）</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タナカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハナコ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「パスワードは半角英数字のみです」
+とエラーメッセージが表示</t>
+    <rPh sb="7" eb="9">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>エイスウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「確認」ボタンを押下</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログイン前メニュー画面へ遷移すること</t>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="2">
+      <t>タチカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>半角英数字は次の画面に行けないのでテストはクリア</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン」画面が表示される。</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1540,7 +1615,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1550,6 +1625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1787,7 +1868,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1831,9 +1912,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1876,13 +1954,70 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1945,62 +2080,38 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2354,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47:Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2366,32 +2477,34 @@
     <col min="7" max="7" width="8" style="5" customWidth="1"/>
     <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
     <col min="12" max="12" width="16" style="4" customWidth="1"/>
-    <col min="13" max="15" width="8.453125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.08984375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="6.90625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" style="4" customWidth="1"/>
     <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
     <col min="17" max="17" width="23.7265625" style="4" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="7" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2402,27 +2515,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="62"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2432,53 +2545,55 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="12" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="67"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="67"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2487,20 +2602,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="50" t="s">
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2510,16 +2625,16 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="52"/>
+      <c r="Q5" s="70"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="32" t="s">
@@ -2530,18 +2645,20 @@
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
       <c r="H6" s="32" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
       <c r="K6" s="32"/>
       <c r="L6" s="32"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>100</v>
+      <c r="M6" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="P6" s="32"/>
       <c r="Q6" s="32"/>
@@ -2550,7 +2667,7 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="32" t="s">
         <v>17</v>
       </c>
@@ -2559,18 +2676,20 @@
       <c r="F7" s="32"/>
       <c r="G7" s="32"/>
       <c r="H7" s="32" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>100</v>
+      <c r="M7" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="P7" s="32"/>
       <c r="Q7" s="32"/>
@@ -2580,939 +2699,1045 @@
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="62" t="s">
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="66"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="41"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="62" t="s">
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="19"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17" ht="14.5" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="62" t="s">
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="19"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="14.5" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="62" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="19"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="1:17" ht="19" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="62" t="s">
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="1:17" ht="11">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="66"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="41"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="62" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="66"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="41"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="62" t="s">
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:17" ht="11">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="62" t="s">
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="19"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17" ht="11">
       <c r="A17" s="6">
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="62" t="s">
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" ht="11">
       <c r="A18" s="6">
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q18" s="19"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:17" ht="10.5" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="62" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="19"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="1:17" ht="74" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="69"/>
+      <c r="B20" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="35"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O21" s="7"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="69"/>
+        <v>43</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="35"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="69"/>
+      <c r="B22" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="35"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="69"/>
+        <v>43</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="35"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="69"/>
+        <v>43</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="35"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="69"/>
+      <c r="B25" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="35"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="62" t="s">
+      <c r="B26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="69"/>
+      <c r="C26" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="35"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O27" s="7"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="69"/>
+      <c r="B27" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="35"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
         <v>23</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="69"/>
+        <v>43</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="35"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O29" s="7"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="69"/>
+      <c r="B29" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="35"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O30" s="7"/>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="69"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="35"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O31" s="7"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="69"/>
+      <c r="B31" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="35"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="69"/>
+      <c r="B32" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="35"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
         <v>28</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O33" s="7"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="69"/>
+      <c r="B33" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="35"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
         <v>29</v>
       </c>
-      <c r="B34" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="69"/>
+      <c r="B34" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="35"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
         <v>30</v>
       </c>
-      <c r="B35" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="69"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O35" s="7"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="69"/>
+      <c r="B35" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="35"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
         <v>31</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="69"/>
+      <c r="B36" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="35"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
         <v>32</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="7" t="s">
+      <c r="B37" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="O37" s="7"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="69"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="35"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
         <v>33</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="67" t="s">
+      <c r="B38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="69"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="69"/>
+      <c r="C38" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="35"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
         <v>34</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="7" t="s">
+      <c r="B39" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="O39" s="7"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="69"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="35"/>
     </row>
     <row r="40" spans="1:17" ht="13.5" customHeight="1">
       <c r="A40" s="6">
         <v>35</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
+      <c r="C40" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="31"/>
       <c r="H40" s="32" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
       <c r="K40" s="32"/>
       <c r="L40" s="32"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O40" s="7"/>
+      <c r="M40" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="P40" s="32"/>
       <c r="Q40" s="32"/>
     </row>
@@ -3520,26 +3745,30 @@
       <c r="A41" s="6">
         <v>36</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="31"/>
       <c r="H41" s="32" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
       <c r="K41" s="32"/>
       <c r="L41" s="32"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O41" s="7"/>
+      <c r="M41" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="P41" s="32"/>
       <c r="Q41" s="32"/>
     </row>
@@ -3547,26 +3776,30 @@
       <c r="A42" s="6">
         <v>37</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="31"/>
       <c r="H42" s="32" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
       <c r="L42" s="32"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O42" s="7"/>
+      <c r="M42" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="P42" s="32"/>
       <c r="Q42" s="32"/>
     </row>
@@ -3574,53 +3807,61 @@
       <c r="A43" s="6">
         <v>38</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="31"/>
       <c r="H43" s="32" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
       <c r="K43" s="32"/>
       <c r="L43" s="32"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
+      <c r="M43" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="41"/>
     </row>
     <row r="44" spans="1:17" ht="13.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="31"/>
       <c r="H44" s="32" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
       <c r="K44" s="32"/>
       <c r="L44" s="32"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O44" s="7"/>
+      <c r="M44" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="P44" s="32"/>
       <c r="Q44" s="32"/>
     </row>
@@ -3628,53 +3869,61 @@
       <c r="A45" s="6">
         <v>40</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="71" t="s">
-        <v>72</v>
+      <c r="B45" s="23"/>
+      <c r="C45" s="39" t="s">
+        <v>52</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
-      <c r="H45" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
+      <c r="H45" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="41"/>
     </row>
     <row r="46" spans="1:17" ht="13.5" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="71" t="s">
-        <v>73</v>
+      <c r="B46" s="24"/>
+      <c r="C46" s="39" t="s">
+        <v>99</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
-      <c r="H46" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="69"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O46" s="7"/>
+      <c r="H46" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
     </row>
@@ -3682,148 +3931,238 @@
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="69"/>
-      <c r="M47" s="15"/>
-      <c r="N47" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O47" s="7"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="17"/>
+      <c r="B47" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P47" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q47" s="39"/>
     </row>
     <row r="48" spans="1:17" ht="61" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="69"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="17"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P48" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q48" s="39"/>
     </row>
     <row r="49" spans="1:17" ht="56.5" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="31"/>
-      <c r="C49" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="69"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O49" s="7"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="17"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="81"/>
     </row>
     <row r="50" spans="1:17" ht="58.5" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="70"/>
-      <c r="C50" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="64"/>
-      <c r="H50" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="69"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="17"/>
+      <c r="B50" s="38"/>
+      <c r="C50" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="71">
+        <v>45504</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="16"/>
     </row>
     <row r="51" spans="1:17" ht="58.5" customHeight="1">
-      <c r="A51" s="27"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="125">
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
+  <mergeCells count="129">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="P44:Q44"/>
     <mergeCell ref="C45:G45"/>
@@ -3843,97 +4182,25 @@
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="C47:G47"/>
     <mergeCell ref="H47:L47"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3858AC87-E12D-48D6-8345-141EF597A8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1119F154-FBD2-4747-B2FE-026912A34E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="105">
   <si>
     <t>作成者</t>
   </si>
@@ -1495,13 +1495,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>高良</t>
-    <rPh sb="0" eb="2">
-      <t>タカラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ログイン前メニュー画面へ遷移すること</t>
     <rPh sb="4" eb="5">
       <t>マエ</t>
@@ -1547,6 +1540,16 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高良・舘川</t>
+    <rPh sb="0" eb="2">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タテカワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1615,7 +1618,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1631,6 +1634,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,7 +1877,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1954,6 +1963,117 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1963,8 +2083,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1975,114 +2098,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2101,17 +2122,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2465,8 +2477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47:Q47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2478,7 +2490,7 @@
     <col min="8" max="11" width="7.1796875" style="4" customWidth="1"/>
     <col min="12" max="12" width="16" style="4" customWidth="1"/>
     <col min="13" max="13" width="10.08984375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="6.90625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="9.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.7265625" style="4" customWidth="1"/>
     <col min="16" max="16" width="17.1796875" style="4" customWidth="1"/>
     <col min="17" max="17" width="23.7265625" style="4" bestFit="1" customWidth="1"/>
@@ -2486,25 +2498,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="56" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2519,23 +2531,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="57" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="60" t="s">
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="62"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2546,54 +2558,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="67"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="53"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="67"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2602,20 +2614,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="68" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2625,33 +2637,33 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="68" t="s">
+      <c r="P5" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="70"/>
+      <c r="Q5" s="56"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="71">
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="29">
         <v>45504</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -2660,29 +2672,29 @@
       <c r="O6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="71">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="29">
         <v>45504</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -2691,29 +2703,29 @@
       <c r="O7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="1:17" ht="14.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="29" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="71">
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="29">
         <v>45504</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -2722,27 +2734,27 @@
       <c r="O8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="41"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="29" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="71">
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="29">
         <v>45504</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -2759,19 +2771,19 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="29" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="71">
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="29">
         <v>45504</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -2788,19 +2800,19 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="29" t="s">
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="71">
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="29">
         <v>45504</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -2817,19 +2829,19 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="29" t="s">
+      <c r="C12" s="60"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="71">
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="29">
         <v>45504</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -2846,19 +2858,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="29" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="71">
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="29">
         <v>45504</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -2867,29 +2879,29 @@
       <c r="O13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="41"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="29" t="s">
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="71">
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="29">
         <v>45504</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -2898,27 +2910,27 @@
       <c r="O14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="41"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="70"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="29" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="71">
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="29">
         <v>45504</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -2935,19 +2947,19 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="29" t="s">
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="71">
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="29">
         <v>45504</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2964,19 +2976,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="29" t="s">
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="71">
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="29">
         <v>45504</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -2993,19 +3005,19 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="29" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="71">
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="29">
         <v>45504</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -3022,21 +3034,21 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="29" t="s">
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="71">
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="29">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -3055,31 +3067,31 @@
       <c r="B20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="33" t="s">
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="71">
+      <c r="I20" s="72"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="29">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="35"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="73"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
@@ -3088,31 +3100,31 @@
       <c r="B21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="33" t="s">
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="71">
+      <c r="I21" s="72"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="29">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="35"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="73"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
@@ -3121,31 +3133,31 @@
       <c r="B22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="29" t="s">
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="71">
+      <c r="I22" s="72"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="29">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="35"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="73"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
@@ -3154,31 +3166,31 @@
       <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="33" t="s">
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="71">
+      <c r="I23" s="72"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="29">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="35"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="73"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
@@ -3187,31 +3199,31 @@
       <c r="B24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="33" t="s">
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="71">
+      <c r="I24" s="72"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="29">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="35"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="73"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
@@ -3220,31 +3232,31 @@
       <c r="B25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="29" t="s">
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="71">
+      <c r="I25" s="72"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="29">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="35"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="73"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
@@ -3253,31 +3265,31 @@
       <c r="B26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="29" t="s">
+      <c r="D26" s="67"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="71">
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="29">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="35"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="73"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
@@ -3286,31 +3298,31 @@
       <c r="B27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="29" t="s">
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="71">
+      <c r="I27" s="72"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="73"/>
+      <c r="M27" s="29">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="35"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="73"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
@@ -3319,31 +3331,31 @@
       <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="33" t="s">
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="71">
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="29">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="35"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="73"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
@@ -3352,31 +3364,31 @@
       <c r="B29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="29" t="s">
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="71">
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="29">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="35"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="73"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
@@ -3385,31 +3397,31 @@
       <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="33" t="s">
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="71">
+      <c r="I30" s="72"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="29">
         <v>45504</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="35"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="73"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
@@ -3418,31 +3430,31 @@
       <c r="B31" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="33" t="s">
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="71">
+      <c r="I31" s="72"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="29">
         <v>45504</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="35"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="73"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
@@ -3451,31 +3463,31 @@
       <c r="B32" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="29" t="s">
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="71">
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="29">
         <v>45504</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="35"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="73"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
@@ -3484,31 +3496,31 @@
       <c r="B33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="33" t="s">
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="71">
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="29">
         <v>45504</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="35"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="73"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
@@ -3517,31 +3529,31 @@
       <c r="B34" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="33" t="s">
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="71">
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="29">
         <v>45504</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="35"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="73"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
@@ -3550,31 +3562,31 @@
       <c r="B35" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="29" t="s">
+      <c r="D35" s="67"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="67"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="71">
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="29">
         <v>45504</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="35"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="73"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
@@ -3583,31 +3595,31 @@
       <c r="B36" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="29" t="s">
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="71">
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="29">
         <v>45504</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="35"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="73"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
@@ -3616,31 +3628,31 @@
       <c r="B37" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="29" t="s">
+      <c r="D37" s="67"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="71">
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="29">
         <v>45504</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="35"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="73"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
@@ -3649,31 +3661,31 @@
       <c r="B38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="33" t="s">
+      <c r="D38" s="67"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="71">
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="29">
         <v>45504</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="35"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="73"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
@@ -3682,31 +3694,31 @@
       <c r="B39" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="29" t="s">
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="71">
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="29">
         <v>45504</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="35"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="73"/>
     </row>
     <row r="40" spans="1:17" ht="13.5" customHeight="1">
       <c r="A40" s="6">
@@ -3715,335 +3727,337 @@
       <c r="B40" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="32" t="s">
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="71">
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="29">
         <v>45504</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
       <c r="B41" s="23"/>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="32" t="s">
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="71">
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="29">
         <v>45504</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="36"/>
     </row>
     <row r="42" spans="1:17" ht="13.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
       <c r="B42" s="23"/>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="32" t="s">
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="71">
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="29">
         <v>45504</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
     </row>
     <row r="43" spans="1:17" ht="13.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
       <c r="B43" s="23"/>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="32" t="s">
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="71">
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="29">
         <v>45504</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="41"/>
+      <c r="P43" s="69"/>
+      <c r="Q43" s="70"/>
     </row>
     <row r="44" spans="1:17" ht="13.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
       <c r="B44" s="23"/>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="71">
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="29">
         <v>45504</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
+      <c r="P44" s="36"/>
+      <c r="Q44" s="36"/>
     </row>
     <row r="45" spans="1:17" ht="36.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="23"/>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="39" t="s">
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="I45" s="39"/>
-      <c r="J45" s="39"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="71">
+      <c r="I45" s="75"/>
+      <c r="J45" s="75"/>
+      <c r="K45" s="75"/>
+      <c r="L45" s="75"/>
+      <c r="M45" s="29">
         <v>45504</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="41"/>
+      <c r="P45" s="69"/>
+      <c r="Q45" s="70"/>
     </row>
     <row r="46" spans="1:17" ht="13.5" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
       <c r="B46" s="24"/>
-      <c r="C46" s="39" t="s">
+      <c r="C46" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33" t="s">
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="71">
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="29">
         <v>45504</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
     </row>
     <row r="47" spans="1:17" ht="62" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="33" t="s">
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="71">
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="29">
         <v>45504</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P47" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q47" s="39"/>
+      <c r="P47" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q47" s="75"/>
     </row>
     <row r="48" spans="1:17" ht="61" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="37"/>
-      <c r="C48" s="29" t="s">
+      <c r="B48" s="35"/>
+      <c r="C48" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="33" t="s">
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="71">
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="29">
         <v>45504</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="P48" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q48" s="39"/>
+      <c r="P48" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q48" s="75"/>
     </row>
     <row r="49" spans="1:17" ht="56.5" customHeight="1">
       <c r="A49" s="6">
         <v>44</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="72" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="74"/>
-      <c r="H49" s="75" t="s">
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
-      <c r="K49" s="76"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="80"/>
-      <c r="Q49" s="81"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="O49" s="33"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="31"/>
     </row>
     <row r="50" spans="1:17" ht="58.5" customHeight="1">
       <c r="A50" s="6">
         <v>45</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="29" t="s">
+      <c r="B50" s="74"/>
+      <c r="C50" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="33" t="s">
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="29">
+        <v>45504</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="71">
-        <v>45504</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>73</v>
@@ -4072,97 +4086,21 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="P44:Q44"/>
     <mergeCell ref="C45:G45"/>
@@ -4186,21 +4124,97 @@
     <mergeCell ref="P45:Q45"/>
     <mergeCell ref="P47:Q47"/>
     <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1119F154-FBD2-4747-B2FE-026912A34E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F3DDBD-E708-4B14-9503-E6381714BCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="9580" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="103">
   <si>
     <t>作成者</t>
   </si>
@@ -696,16 +696,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>セキュリティ確認</t>
     <rPh sb="6" eb="8">
       <t>カクニン</t>
@@ -785,10 +775,6 @@
     <rPh sb="28" eb="30">
       <t>ハキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/registeraccount/input」を入力</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1618,7 +1604,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1628,18 +1614,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1877,7 +1851,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1966,17 +1940,26 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1984,7 +1967,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2045,84 +2064,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2475,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43:Q43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2498,25 +2439,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2527,27 +2468,27 @@
         <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="43" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="46" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2558,54 +2499,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="53"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2614,20 +2555,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="54" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2637,131 +2578,131 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="56"/>
+      <c r="Q5" s="71"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="29">
         <v>45504</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
+        <v>71</v>
+      </c>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="29">
         <v>45504</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
+        <v>71</v>
+      </c>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="14.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="66" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="68"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="29">
         <v>45504</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70"/>
+        <v>71</v>
+      </c>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="66" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="68"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="29">
         <v>45504</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P9" s="17"/>
       <c r="Q9" s="18"/>
@@ -2771,26 +2712,26 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="66" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="68"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="29">
         <v>45504</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P10" s="17"/>
       <c r="Q10" s="18"/>
@@ -2800,26 +2741,26 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="66" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="29">
         <v>45504</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="18"/>
@@ -2829,26 +2770,26 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="66" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="29">
         <v>45504</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="18"/>
@@ -2858,86 +2799,86 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="66" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="29">
         <v>45504</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="70"/>
+        <v>71</v>
+      </c>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="66" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="68"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="29">
         <v>45504</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="70"/>
+        <v>71</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="66" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="68"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="29">
         <v>45504</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="18"/>
@@ -2947,26 +2888,26 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="66" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="68"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="29">
         <v>45504</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="18"/>
@@ -2976,26 +2917,26 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="66" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="68"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="29">
         <v>45504</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="18"/>
@@ -3005,26 +2946,26 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="68"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="29">
         <v>45504</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P18" s="17"/>
       <c r="Q18" s="18"/>
@@ -3034,28 +2975,28 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="66" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="68"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="29">
         <v>45504</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P19" s="17"/>
       <c r="Q19" s="18"/>
@@ -3067,31 +3008,31 @@
       <c r="B20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="71" t="s">
+      <c r="C20" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="73"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="29">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
@@ -3100,31 +3041,31 @@
       <c r="B21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="71" t="s">
+      <c r="C21" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="73"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="29">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
@@ -3133,31 +3074,31 @@
       <c r="B22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="66" t="s">
+      <c r="C22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="73"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="29">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
@@ -3166,31 +3107,31 @@
       <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="71" t="s">
+      <c r="C23" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="29">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
@@ -3199,31 +3140,31 @@
       <c r="B24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="71" t="s">
+      <c r="C24" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="73"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="29">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
@@ -3232,31 +3173,31 @@
       <c r="B25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="66" t="s">
+      <c r="C25" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="73"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="29">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="36"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
@@ -3265,31 +3206,31 @@
       <c r="B26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="66" t="s">
+      <c r="C26" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="73"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="29">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
@@ -3298,31 +3239,31 @@
       <c r="B27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="73"/>
+      <c r="C27" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="29">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
@@ -3331,31 +3272,31 @@
       <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="71" t="s">
+      <c r="C28" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="73"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="29">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
@@ -3364,31 +3305,31 @@
       <c r="B29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="73"/>
+      <c r="C29" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="29">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
@@ -3397,31 +3338,31 @@
       <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="71" t="s">
+      <c r="C30" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="73"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
       <c r="M30" s="29">
         <v>45504</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
@@ -3430,31 +3371,31 @@
       <c r="B31" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="71" t="s">
+      <c r="C31" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="73"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="36"/>
       <c r="M31" s="29">
         <v>45504</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
@@ -3463,31 +3404,31 @@
       <c r="B32" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="66" t="s">
+      <c r="C32" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="73"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="29">
         <v>45504</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
@@ -3496,31 +3437,31 @@
       <c r="B33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="71" t="s">
+      <c r="C33" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="73"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="29">
         <v>45504</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="36"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
@@ -3529,31 +3470,31 @@
       <c r="B34" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="71" t="s">
+      <c r="C34" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="73"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="29">
         <v>45504</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="36"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
@@ -3562,31 +3503,31 @@
       <c r="B35" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="66" t="s">
+      <c r="C35" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="73"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="29">
         <v>45504</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
@@ -3595,31 +3536,31 @@
       <c r="B36" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="66" t="s">
+      <c r="C36" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="73"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="29">
         <v>45504</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
@@ -3628,31 +3569,31 @@
       <c r="B37" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="73"/>
+      <c r="C37" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
       <c r="M37" s="29">
         <v>45504</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="36"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
@@ -3661,31 +3602,31 @@
       <c r="B38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="71" t="s">
+      <c r="C38" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="73"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="36"/>
       <c r="M38" s="29">
         <v>45504</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="36"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
@@ -3694,31 +3635,31 @@
       <c r="B39" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="73"/>
+      <c r="C39" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
       <c r="M39" s="29">
         <v>45504</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="73"/>
+        <v>71</v>
+      </c>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="36"/>
     </row>
     <row r="40" spans="1:17" ht="13.5" customHeight="1">
       <c r="A40" s="6">
@@ -3727,475 +3668,338 @@
       <c r="B40" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="36" t="s">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
       <c r="M40" s="29">
         <v>45504</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
+        <v>71</v>
+      </c>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
       <c r="B41" s="23"/>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="36" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
       <c r="M41" s="29">
         <v>45504</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
+        <v>71</v>
+      </c>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
     </row>
     <row r="42" spans="1:17" ht="13.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
       <c r="B42" s="23"/>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="67"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="36" t="s">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
       <c r="M42" s="29">
         <v>45504</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
+        <v>71</v>
+      </c>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
     </row>
     <row r="43" spans="1:17" ht="13.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
       <c r="B43" s="23"/>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="36" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
       <c r="M43" s="29">
         <v>45504</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P43" s="69"/>
-      <c r="Q43" s="70"/>
+        <v>71</v>
+      </c>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="42"/>
     </row>
     <row r="44" spans="1:17" ht="13.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
       <c r="B44" s="23"/>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
       <c r="M44" s="29">
         <v>45504</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="36"/>
+        <v>71</v>
+      </c>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
     </row>
     <row r="45" spans="1:17" ht="36.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="23"/>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
       <c r="M45" s="29">
         <v>45504</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="P45" s="69"/>
-      <c r="Q45" s="70"/>
+        <v>72</v>
+      </c>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="42"/>
     </row>
     <row r="46" spans="1:17" ht="13.5" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
       <c r="B46" s="24"/>
-      <c r="C46" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="71" t="s">
+      <c r="C46" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="73"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="36"/>
       <c r="M46" s="29">
         <v>45504</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P46" s="36"/>
-      <c r="Q46" s="36"/>
+        <v>71</v>
+      </c>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
     </row>
     <row r="47" spans="1:17" ht="62" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" s="66" t="s">
+      <c r="B47" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="71" t="s">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="73"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
       <c r="M47" s="29">
         <v>45504</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P47" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q47" s="75"/>
+        <v>71</v>
+      </c>
+      <c r="P47" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="40"/>
     </row>
     <row r="48" spans="1:17" ht="61" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="71" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="73"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="36"/>
       <c r="M48" s="29">
         <v>45504</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P48" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P48" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q48" s="40"/>
+    </row>
+    <row r="49" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A49" s="6">
+        <v>45</v>
+      </c>
+      <c r="B49" s="39"/>
+      <c r="C49" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="29">
+        <v>45504</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Q48" s="75"/>
-    </row>
-    <row r="49" spans="1:17" ht="56.5" customHeight="1">
-      <c r="A49" s="6">
-        <v>44</v>
-      </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="78"/>
-      <c r="H49" s="79" t="s">
-        <v>64</v>
-      </c>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="O49" s="33"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="31"/>
+      <c r="O49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="16"/>
     </row>
     <row r="50" spans="1:17" ht="58.5" customHeight="1">
-      <c r="A50" s="6">
-        <v>45</v>
-      </c>
-      <c r="B50" s="74"/>
-      <c r="C50" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="73"/>
-      <c r="M50" s="29">
-        <v>45504</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="16"/>
-    </row>
-    <row r="51" spans="1:17" ht="58.5" customHeight="1">
-      <c r="A51" s="26"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="129">
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
+  <mergeCells count="127">
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="H6:L6"/>
@@ -4215,6 +4019,114 @@
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F3DDBD-E708-4B14-9503-E6381714BCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F105F2-5180-4777-93D9-F7AC6CA69B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="104">
   <si>
     <t>作成者</t>
   </si>
@@ -802,10 +802,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>社員名：田中花子
 アカウント名：tanaka
 パスワード：tanaka
@@ -1536,6 +1532,20 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>タテカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後回しでOK</t>
+    <rPh sb="0" eb="2">
+      <t>アトマワ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1940,6 +1950,102 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1949,8 +2055,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1961,110 +2070,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2419,7 +2429,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43:Q43"/>
+      <selection activeCell="P41" sqref="P41:Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2439,25 +2449,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="54" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2472,23 +2482,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="58" t="s">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="63"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="44"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2499,54 +2509,54 @@
         <v>5</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="68"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="68"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2555,20 +2565,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="69" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2578,32 +2588,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="69" t="s">
+      <c r="P5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="71"/>
+      <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="29">
         <v>45504</v>
       </c>
@@ -2613,28 +2623,28 @@
       <c r="O6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="31"/>
+      <c r="C7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="29">
         <v>45504</v>
       </c>
@@ -2644,28 +2654,28 @@
       <c r="O7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
     </row>
     <row r="8" spans="1:17" ht="14.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="30" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="29">
         <v>45504</v>
       </c>
@@ -2675,26 +2685,26 @@
       <c r="O8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="42"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="66"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="30" t="s">
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="64"/>
       <c r="M9" s="29">
         <v>45504</v>
       </c>
@@ -2712,18 +2722,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="30" t="s">
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="64"/>
       <c r="M10" s="29">
         <v>45504</v>
       </c>
@@ -2741,18 +2751,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="30" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="29">
         <v>45504</v>
       </c>
@@ -2770,18 +2780,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="30" t="s">
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="64"/>
       <c r="M12" s="29">
         <v>45504</v>
       </c>
@@ -2799,18 +2809,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="30" t="s">
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="64"/>
       <c r="M13" s="29">
         <v>45504</v>
       </c>
@@ -2820,28 +2830,28 @@
       <c r="O13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="42"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="66"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="30" t="s">
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="64"/>
       <c r="M14" s="29">
         <v>45504</v>
       </c>
@@ -2851,26 +2861,26 @@
       <c r="O14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="42"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="66"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="30" t="s">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="29">
         <v>45504</v>
       </c>
@@ -2888,18 +2898,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="30" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="64"/>
       <c r="M16" s="29">
         <v>45504</v>
       </c>
@@ -2917,18 +2927,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="30" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="64"/>
       <c r="M17" s="29">
         <v>45504</v>
       </c>
@@ -2946,18 +2956,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64"/>
       <c r="M18" s="29">
         <v>45504</v>
       </c>
@@ -2975,20 +2985,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="30" t="s">
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="32"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="64"/>
       <c r="M19" s="29">
         <v>45504</v>
       </c>
@@ -3008,31 +3018,31 @@
       <c r="B20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="34" t="s">
+      <c r="C20" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="69"/>
       <c r="M20" s="29">
         <v>45504</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="36"/>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="69"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
@@ -3041,31 +3051,31 @@
       <c r="B21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="34" t="s">
+      <c r="C21" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="69"/>
       <c r="M21" s="29">
         <v>45504</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="36"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="69"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
@@ -3074,31 +3084,31 @@
       <c r="B22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="30" t="s">
+      <c r="C22" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="69"/>
       <c r="M22" s="29">
         <v>45504</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="36"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="69"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
@@ -3107,31 +3117,31 @@
       <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="34" t="s">
+      <c r="C23" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="69"/>
       <c r="M23" s="29">
         <v>45504</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="36"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="69"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
@@ -3140,31 +3150,31 @@
       <c r="B24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="34" t="s">
+      <c r="C24" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="36"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="69"/>
       <c r="M24" s="29">
         <v>45504</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="36"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="69"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
@@ -3173,31 +3183,31 @@
       <c r="B25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="30" t="s">
+      <c r="C25" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="36"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="69"/>
       <c r="M25" s="29">
         <v>45504</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="36"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="69"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
@@ -3206,31 +3216,31 @@
       <c r="B26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="30" t="s">
+      <c r="C26" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="36"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="69"/>
       <c r="M26" s="29">
         <v>45504</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="36"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="69"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
@@ -3239,31 +3249,31 @@
       <c r="B27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="30" t="s">
+      <c r="C27" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="36"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="69"/>
       <c r="M27" s="29">
         <v>45504</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P27" s="34"/>
-      <c r="Q27" s="36"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="69"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
@@ -3272,31 +3282,31 @@
       <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="34" t="s">
+      <c r="C28" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="69"/>
       <c r="M28" s="29">
         <v>45504</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="36"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="69"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
@@ -3305,31 +3315,31 @@
       <c r="B29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
+      <c r="C29" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="69"/>
       <c r="M29" s="29">
         <v>45504</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="36"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="69"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
@@ -3338,31 +3348,31 @@
       <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="34" t="s">
+      <c r="C30" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="69"/>
       <c r="M30" s="29">
         <v>45504</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="36"/>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="69"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
@@ -3371,31 +3381,31 @@
       <c r="B31" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="34" t="s">
+      <c r="C31" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="69"/>
       <c r="M31" s="29">
         <v>45504</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="36"/>
+      <c r="P31" s="67"/>
+      <c r="Q31" s="69"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
@@ -3404,31 +3414,31 @@
       <c r="B32" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="30" t="s">
+      <c r="C32" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="36"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="69"/>
       <c r="M32" s="29">
         <v>45504</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="36"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="69"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
@@ -3437,31 +3447,31 @@
       <c r="B33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="34" t="s">
+      <c r="C33" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="69"/>
       <c r="M33" s="29">
         <v>45504</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="36"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="69"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
@@ -3470,31 +3480,31 @@
       <c r="B34" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="34" t="s">
+      <c r="C34" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="36"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="69"/>
       <c r="M34" s="29">
         <v>45504</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="36"/>
+      <c r="P34" s="67"/>
+      <c r="Q34" s="69"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
@@ -3503,31 +3513,31 @@
       <c r="B35" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="30" t="s">
+      <c r="C35" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="36"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="69"/>
       <c r="M35" s="29">
         <v>45504</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="36"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="69"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
@@ -3536,31 +3546,31 @@
       <c r="B36" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="30" t="s">
+      <c r="C36" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="36"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="69"/>
       <c r="M36" s="29">
         <v>45504</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="36"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="69"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
@@ -3569,31 +3579,31 @@
       <c r="B37" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
+      <c r="C37" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="69"/>
       <c r="M37" s="29">
         <v>45504</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="36"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="69"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
@@ -3602,31 +3612,31 @@
       <c r="B38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="34" t="s">
+      <c r="C38" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="36"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="69"/>
       <c r="M38" s="29">
         <v>45504</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="36"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="69"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
@@ -3635,31 +3645,31 @@
       <c r="B39" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="36"/>
+      <c r="C39" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="69"/>
       <c r="M39" s="29">
         <v>45504</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="36"/>
+      <c r="P39" s="67"/>
+      <c r="Q39" s="69"/>
     </row>
     <row r="40" spans="1:17" ht="13.5" customHeight="1">
       <c r="A40" s="6">
@@ -3668,310 +3678,310 @@
       <c r="B40" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33" t="s">
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
       <c r="M40" s="29">
         <v>45504</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
       <c r="B41" s="23"/>
-      <c r="C41" s="30" t="s">
+      <c r="C41" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33" t="s">
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
       <c r="M41" s="29">
         <v>45504</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
+      <c r="P41" s="32"/>
+      <c r="Q41" s="32"/>
     </row>
     <row r="42" spans="1:17" ht="13.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
       <c r="B42" s="23"/>
-      <c r="C42" s="30" t="s">
+      <c r="C42" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33" t="s">
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
       <c r="M42" s="29">
         <v>45504</v>
       </c>
       <c r="N42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
+      <c r="P42" s="32"/>
+      <c r="Q42" s="32"/>
     </row>
     <row r="43" spans="1:17" ht="13.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
       <c r="B43" s="23"/>
-      <c r="C43" s="30" t="s">
+      <c r="C43" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33" t="s">
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="64"/>
+      <c r="H43" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="I43" s="33"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
       <c r="M43" s="29">
         <v>45504</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="42"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="66"/>
     </row>
     <row r="44" spans="1:17" ht="13.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
       <c r="B44" s="23"/>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="I44" s="33"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
       <c r="M44" s="29">
         <v>45504</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
     </row>
     <row r="45" spans="1:17" ht="36.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="23"/>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="40" t="s">
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="40"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
       <c r="M45" s="29">
         <v>45504</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="42"/>
+        <v>103</v>
+      </c>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="66"/>
     </row>
     <row r="46" spans="1:17" ht="13.5" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
       <c r="B46" s="24"/>
-      <c r="C46" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="34" t="s">
+      <c r="C46" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="36"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="69"/>
       <c r="M46" s="29">
         <v>45504</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
+      <c r="P46" s="32"/>
+      <c r="Q46" s="32"/>
     </row>
     <row r="47" spans="1:17" ht="62" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="34" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="36"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="69"/>
       <c r="M47" s="29">
         <v>45504</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P47" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q47" s="40"/>
+      <c r="P47" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q47" s="71"/>
     </row>
     <row r="48" spans="1:17" ht="61" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="38"/>
-      <c r="C48" s="30" t="s">
+      <c r="B48" s="31"/>
+      <c r="C48" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="34" t="s">
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="64"/>
+      <c r="H48" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="36"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="69"/>
       <c r="M48" s="29">
         <v>45504</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P48" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q48" s="40"/>
+      <c r="P48" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q48" s="71"/>
     </row>
     <row r="49" spans="1:17" ht="58.5" customHeight="1">
       <c r="A49" s="6">
         <v>45</v>
       </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="30" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="34" t="s">
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="64"/>
+      <c r="H49" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="29">
+        <v>45504</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="29">
-        <v>45504</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>71</v>
@@ -4000,97 +4010,21 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="P44:Q44"/>
     <mergeCell ref="C45:G45"/>
@@ -4112,21 +4046,97 @@
     <mergeCell ref="P45:Q45"/>
     <mergeCell ref="P47:Q47"/>
     <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP003担当者アカウント登録(入力)画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F105F2-5180-4777-93D9-F7AC6CA69B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A86F4B-F163-4889-8590-FE67CEA84790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -1950,13 +1950,70 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2018,63 +2075,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2428,8 +2428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41:Q41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -2449,25 +2449,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2482,23 +2482,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="39" t="s">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42" t="s">
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2513,50 +2513,50 @@
       </c>
     </row>
     <row r="3" spans="1:17" ht="14" customHeight="1">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="49"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="68"/>
     </row>
     <row r="4" spans="1:17" ht="36" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="65"/>
+      <c r="C4" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="49"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="68"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -2565,20 +2565,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="50" t="s">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -2588,32 +2588,32 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="50" t="s">
+      <c r="P5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="52"/>
+      <c r="Q5" s="71"/>
     </row>
     <row r="6" spans="1:17" ht="11">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="29">
         <v>45504</v>
       </c>
@@ -2623,28 +2623,28 @@
       <c r="O6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
     </row>
     <row r="7" spans="1:17" ht="11" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="29">
         <v>45504</v>
       </c>
@@ -2654,28 +2654,28 @@
       <c r="O7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" ht="14.5" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="62" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="64"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="29">
         <v>45504</v>
       </c>
@@ -2685,26 +2685,26 @@
       <c r="O8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="66"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="14.5" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="62" t="s">
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="29">
         <v>45504</v>
       </c>
@@ -2722,18 +2722,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="62" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="63"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="32"/>
       <c r="M10" s="29">
         <v>45504</v>
       </c>
@@ -2751,18 +2751,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="62" t="s">
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="32"/>
       <c r="M11" s="29">
         <v>45504</v>
       </c>
@@ -2780,18 +2780,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="62" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="29">
         <v>45504</v>
       </c>
@@ -2809,18 +2809,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62" t="s">
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="64"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="29">
         <v>45504</v>
       </c>
@@ -2830,28 +2830,28 @@
       <c r="O13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="66"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
     </row>
     <row r="14" spans="1:17" ht="11">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="62" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="29">
         <v>45504</v>
       </c>
@@ -2861,26 +2861,26 @@
       <c r="O14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P14" s="65"/>
-      <c r="Q14" s="66"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="42"/>
     </row>
     <row r="15" spans="1:17" ht="11">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="62" t="s">
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="29">
         <v>45504</v>
       </c>
@@ -2898,18 +2898,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="62" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="29">
         <v>45504</v>
       </c>
@@ -2927,18 +2927,18 @@
         <v>12</v>
       </c>
       <c r="B17" s="8"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="62" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="29">
         <v>45504</v>
       </c>
@@ -2956,18 +2956,18 @@
         <v>13</v>
       </c>
       <c r="B18" s="8"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="62" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="I18" s="63"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="29">
         <v>45504</v>
       </c>
@@ -2985,20 +2985,20 @@
         <v>14</v>
       </c>
       <c r="B19" s="8"/>
-      <c r="C19" s="67" t="s">
+      <c r="C19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="62" t="s">
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="29">
         <v>45504</v>
       </c>
@@ -3018,20 +3018,20 @@
       <c r="B20" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="67" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
       <c r="M20" s="29">
         <v>45504</v>
       </c>
@@ -3041,8 +3041,8 @@
       <c r="O20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="67"/>
-      <c r="Q20" s="69"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="36"/>
     </row>
     <row r="21" spans="1:17" ht="74.5" customHeight="1">
       <c r="A21" s="6">
@@ -3051,20 +3051,20 @@
       <c r="B21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="67" t="s">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="69"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
       <c r="M21" s="29">
         <v>45504</v>
       </c>
@@ -3074,8 +3074,8 @@
       <c r="O21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="69"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="72.5" customHeight="1">
       <c r="A22" s="6">
@@ -3084,20 +3084,20 @@
       <c r="B22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="62" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="69"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="36"/>
       <c r="M22" s="29">
         <v>45504</v>
       </c>
@@ -3107,8 +3107,8 @@
       <c r="O22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="69"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="36"/>
     </row>
     <row r="23" spans="1:17" ht="72.5" customHeight="1">
       <c r="A23" s="6">
@@ -3117,20 +3117,20 @@
       <c r="B23" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="62" t="s">
+      <c r="C23" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="67" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="69"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="36"/>
       <c r="M23" s="29">
         <v>45504</v>
       </c>
@@ -3140,8 +3140,8 @@
       <c r="O23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="69"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="36"/>
     </row>
     <row r="24" spans="1:17" ht="72.5" customHeight="1">
       <c r="A24" s="6">
@@ -3150,20 +3150,20 @@
       <c r="B24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="67" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="69"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="29">
         <v>45504</v>
       </c>
@@ -3173,8 +3173,8 @@
       <c r="O24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="69"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:17" ht="72.5" customHeight="1">
       <c r="A25" s="6">
@@ -3183,20 +3183,20 @@
       <c r="B25" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="C25" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="62" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="69"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="29">
         <v>45504</v>
       </c>
@@ -3206,8 +3206,8 @@
       <c r="O25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="69"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="36"/>
     </row>
     <row r="26" spans="1:17" ht="72.5" customHeight="1">
       <c r="A26" s="6">
@@ -3216,20 +3216,20 @@
       <c r="B26" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="62" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="69"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="29">
         <v>45504</v>
       </c>
@@ -3239,8 +3239,8 @@
       <c r="O26" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="69"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="36"/>
     </row>
     <row r="27" spans="1:17" ht="72.5" customHeight="1">
       <c r="A27" s="6">
@@ -3249,20 +3249,20 @@
       <c r="B27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="62" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="69"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="36"/>
       <c r="M27" s="29">
         <v>45504</v>
       </c>
@@ -3272,8 +3272,8 @@
       <c r="O27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="69"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="36"/>
     </row>
     <row r="28" spans="1:17" ht="72.5" customHeight="1">
       <c r="A28" s="6">
@@ -3282,20 +3282,20 @@
       <c r="B28" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="67" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="69"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="29">
         <v>45504</v>
       </c>
@@ -3305,8 +3305,8 @@
       <c r="O28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="69"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="36"/>
     </row>
     <row r="29" spans="1:17" ht="72.5" customHeight="1">
       <c r="A29" s="6">
@@ -3315,20 +3315,20 @@
       <c r="B29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="62" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="69"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
       <c r="M29" s="29">
         <v>45504</v>
       </c>
@@ -3338,8 +3338,8 @@
       <c r="O29" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="69"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="1:17" ht="74" customHeight="1">
       <c r="A30" s="6">
@@ -3348,20 +3348,20 @@
       <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="67" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="69"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
       <c r="M30" s="29">
         <v>45504</v>
       </c>
@@ -3371,8 +3371,8 @@
       <c r="O30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="69"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="1:17" ht="74" customHeight="1">
       <c r="A31" s="6">
@@ -3381,20 +3381,20 @@
       <c r="B31" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="67" t="s">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="69"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="36"/>
       <c r="M31" s="29">
         <v>45504</v>
       </c>
@@ -3404,8 +3404,8 @@
       <c r="O31" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="69"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:17" ht="74" customHeight="1">
       <c r="A32" s="6">
@@ -3414,20 +3414,20 @@
       <c r="B32" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="62" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="69"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="36"/>
       <c r="M32" s="29">
         <v>45504</v>
       </c>
@@ -3437,8 +3437,8 @@
       <c r="O32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P32" s="67"/>
-      <c r="Q32" s="69"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" ht="74" customHeight="1">
       <c r="A33" s="6">
@@ -3447,20 +3447,20 @@
       <c r="B33" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="62" t="s">
+      <c r="C33" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="67" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="69"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
       <c r="M33" s="29">
         <v>45504</v>
       </c>
@@ -3470,8 +3470,8 @@
       <c r="O33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="69"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="36"/>
     </row>
     <row r="34" spans="1:17" ht="74" customHeight="1">
       <c r="A34" s="6">
@@ -3480,20 +3480,20 @@
       <c r="B34" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="67" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="69"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="36"/>
       <c r="M34" s="29">
         <v>45504</v>
       </c>
@@ -3503,8 +3503,8 @@
       <c r="O34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P34" s="67"/>
-      <c r="Q34" s="69"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="36"/>
     </row>
     <row r="35" spans="1:17" ht="74" customHeight="1">
       <c r="A35" s="6">
@@ -3513,20 +3513,20 @@
       <c r="B35" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="62" t="s">
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="69"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="36"/>
       <c r="M35" s="29">
         <v>45504</v>
       </c>
@@ -3536,8 +3536,8 @@
       <c r="O35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="69"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="36"/>
     </row>
     <row r="36" spans="1:17" ht="74" customHeight="1">
       <c r="A36" s="6">
@@ -3546,20 +3546,20 @@
       <c r="B36" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="62" t="s">
+      <c r="C36" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="62" t="s">
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="69"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="36"/>
       <c r="M36" s="29">
         <v>45504</v>
       </c>
@@ -3569,8 +3569,8 @@
       <c r="O36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P36" s="67"/>
-      <c r="Q36" s="69"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="36"/>
     </row>
     <row r="37" spans="1:17" ht="74" customHeight="1">
       <c r="A37" s="6">
@@ -3579,20 +3579,20 @@
       <c r="B37" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="62" t="s">
+      <c r="C37" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="62" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="69"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
       <c r="M37" s="29">
         <v>45504</v>
       </c>
@@ -3602,8 +3602,8 @@
       <c r="O37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="69"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="36"/>
     </row>
     <row r="38" spans="1:17" ht="74" customHeight="1">
       <c r="A38" s="6">
@@ -3612,20 +3612,20 @@
       <c r="B38" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="62" t="s">
+      <c r="C38" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="63"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="67" t="s">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="69"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="36"/>
       <c r="M38" s="29">
         <v>45504</v>
       </c>
@@ -3635,8 +3635,8 @@
       <c r="O38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P38" s="67"/>
-      <c r="Q38" s="69"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="36"/>
     </row>
     <row r="39" spans="1:17" ht="74" customHeight="1">
       <c r="A39" s="6">
@@ -3645,20 +3645,20 @@
       <c r="B39" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="63"/>
-      <c r="F39" s="63"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="62" t="s">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="69"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="36"/>
       <c r="M39" s="29">
         <v>45504</v>
       </c>
@@ -3668,8 +3668,8 @@
       <c r="O39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="69"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="36"/>
     </row>
     <row r="40" spans="1:17" ht="13.5" customHeight="1">
       <c r="A40" s="6">
@@ -3678,20 +3678,20 @@
       <c r="B40" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="62" t="s">
+      <c r="C40" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="63"/>
-      <c r="E40" s="63"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="32" t="s">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
       <c r="M40" s="29">
         <v>45504</v>
       </c>
@@ -3701,28 +3701,28 @@
       <c r="O40" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
     </row>
     <row r="41" spans="1:17" ht="13.5" customHeight="1">
       <c r="A41" s="6">
         <v>36</v>
       </c>
       <c r="B41" s="23"/>
-      <c r="C41" s="62" t="s">
+      <c r="C41" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="32" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
       <c r="M41" s="29">
         <v>45504</v>
       </c>
@@ -3732,28 +3732,28 @@
       <c r="O41" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
     </row>
     <row r="42" spans="1:17" ht="13.5" customHeight="1">
       <c r="A42" s="6">
         <v>37</v>
       </c>
       <c r="B42" s="23"/>
-      <c r="C42" s="62" t="s">
+      <c r="C42" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="63"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="64"/>
-      <c r="H42" s="32" t="s">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
       <c r="M42" s="29">
         <v>45504</v>
       </c>
@@ -3763,28 +3763,28 @@
       <c r="O42" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
     </row>
     <row r="43" spans="1:17" ht="13.5" customHeight="1">
       <c r="A43" s="6">
         <v>38</v>
       </c>
       <c r="B43" s="23"/>
-      <c r="C43" s="62" t="s">
+      <c r="C43" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="63"/>
-      <c r="E43" s="63"/>
-      <c r="F43" s="63"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="32" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
       <c r="M43" s="29">
         <v>45504</v>
       </c>
@@ -3794,28 +3794,28 @@
       <c r="O43" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P43" s="65"/>
-      <c r="Q43" s="66"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="42"/>
     </row>
     <row r="44" spans="1:17" ht="13.5" customHeight="1">
       <c r="A44" s="6">
         <v>39</v>
       </c>
       <c r="B44" s="23"/>
-      <c r="C44" s="62" t="s">
+      <c r="C44" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="63"/>
-      <c r="E44" s="63"/>
-      <c r="F44" s="63"/>
-      <c r="G44" s="64"/>
-      <c r="H44" s="32" t="s">
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
       <c r="M44" s="29">
         <v>45504</v>
       </c>
@@ -3825,28 +3825,28 @@
       <c r="O44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
     </row>
     <row r="45" spans="1:17" ht="36.5" customHeight="1">
       <c r="A45" s="6">
         <v>40</v>
       </c>
       <c r="B45" s="23"/>
-      <c r="C45" s="71" t="s">
+      <c r="C45" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="71" t="s">
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
       <c r="M45" s="29">
         <v>45504</v>
       </c>
@@ -3856,28 +3856,28 @@
       <c r="O45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P45" s="65"/>
-      <c r="Q45" s="66"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="42"/>
     </row>
     <row r="46" spans="1:17" ht="13.5" customHeight="1">
       <c r="A46" s="6">
         <v>41</v>
       </c>
       <c r="B46" s="24"/>
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="67" t="s">
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="69"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="36"/>
       <c r="M46" s="29">
         <v>45504</v>
       </c>
@@ -3887,30 +3887,30 @@
       <c r="O46" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
     </row>
     <row r="47" spans="1:17" ht="62" customHeight="1">
       <c r="A47" s="6">
         <v>42</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="62" t="s">
+      <c r="C47" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="63"/>
-      <c r="F47" s="63"/>
-      <c r="G47" s="64"/>
-      <c r="H47" s="67" t="s">
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="69"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="36"/>
       <c r="M47" s="29">
         <v>45504</v>
       </c>
@@ -3920,30 +3920,30 @@
       <c r="O47" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P47" s="71" t="s">
+      <c r="P47" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Q47" s="71"/>
+      <c r="Q47" s="40"/>
     </row>
     <row r="48" spans="1:17" ht="61" customHeight="1">
       <c r="A48" s="6">
         <v>43</v>
       </c>
-      <c r="B48" s="31"/>
-      <c r="C48" s="62" t="s">
+      <c r="B48" s="38"/>
+      <c r="C48" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="63"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="64"/>
-      <c r="H48" s="67" t="s">
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="69"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="36"/>
       <c r="M48" s="29">
         <v>45504</v>
       </c>
@@ -3953,30 +3953,30 @@
       <c r="O48" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P48" s="71" t="s">
+      <c r="P48" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="Q48" s="71"/>
+      <c r="Q48" s="40"/>
     </row>
     <row r="49" spans="1:17" ht="58.5" customHeight="1">
       <c r="A49" s="6">
         <v>45</v>
       </c>
-      <c r="B49" s="70"/>
-      <c r="C49" s="62" t="s">
+      <c r="B49" s="39"/>
+      <c r="C49" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="67" t="s">
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="69"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="36"/>
       <c r="M49" s="29">
         <v>45504</v>
       </c>
@@ -4010,21 +4010,97 @@
     </row>
   </sheetData>
   <mergeCells count="127">
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C14:G18"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="P35:Q35"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="P44:Q44"/>
     <mergeCell ref="C45:G45"/>
@@ -4046,97 +4122,21 @@
     <mergeCell ref="P45:Q45"/>
     <mergeCell ref="P47:Q47"/>
     <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C14:G18"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="P40:Q40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
